--- a/826G5_Intelligence_in_Animals_and_Machines/weeks/labs/IAM_Sussex_labs/lab_3_robinson/RobinsonTestExperimentTest1.xlsx
+++ b/826G5_Intelligence_in_Animals_and_Machines/weeks/labs/IAM_Sussex_labs/lab_3_robinson/RobinsonTestExperimentTest1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR28"/>
+  <dimension ref="A1:FL28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,34 +488,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.289094412371653</v>
+        <v>5.981026409538548</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>37.72258157797908</v>
+        <v>312.5647701023236</v>
       </c>
       <c r="F2" t="n">
         <v>-1</v>
       </c>
       <c r="G2" t="n">
-        <v>37.72258157797908</v>
+        <v>65.52554554207035</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>306.0779503159247</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -548,7 +548,88 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -556,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.472695184414545</v>
+        <v>6.773719086671142</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -565,19 +646,19 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>196.066105044295</v>
+        <v>243.903270650333</v>
       </c>
       <c r="F3" t="n">
         <v>-1</v>
       </c>
       <c r="G3" t="n">
-        <v>28.91198804795172</v>
+        <v>44.64448630120049</v>
       </c>
       <c r="H3" t="n">
-        <v>196.066105044295</v>
+        <v>243.903270650333</v>
       </c>
       <c r="I3" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -601,13 +682,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -622,33 +703,6 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -657,103 +711,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.077297716072085</v>
+        <v>3.708620152947999</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>191.540354051274</v>
+        <v>50.80358487838303</v>
       </c>
       <c r="F4" t="n">
         <v>-1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>50.80358487838303</v>
       </c>
       <c r="H4" t="n">
-        <v>191.540354051274</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -761,7 +752,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.78159062167766</v>
+        <v>6.544908977309939</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -770,25 +761,25 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>134.6511711954334</v>
+        <v>338.2730419090117</v>
       </c>
       <c r="F5" t="n">
         <v>-1</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>67.62763435839608</v>
       </c>
       <c r="H5" t="n">
-        <v>134.6511711954334</v>
+        <v>337.2730419090117</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -800,6 +791,189 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -808,34 +982,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.51149350443032</v>
+        <v>5.562914991057796</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>34.88030971119571</v>
+        <v>131.7435159653643</v>
       </c>
       <c r="F6" t="n">
         <v>-1</v>
       </c>
       <c r="G6" t="n">
-        <v>33.5047673113105</v>
+        <v>20.75383907147584</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>130.6640884641637</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -847,10 +1021,37 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -858,40 +1059,43 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.783148788653144</v>
+        <v>4.571243228565664</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>118.4879830722759</v>
+        <v>43.85612531196713</v>
       </c>
       <c r="F7" t="n">
         <v>-1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>42.85612531196713</v>
       </c>
       <c r="H7" t="n">
-        <v>118.4879830722759</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -899,7 +1103,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.336626692008031</v>
+        <v>7.942015646069388</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -908,25 +1112,25 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>194.9579100553672</v>
+        <v>221.588317998619</v>
       </c>
       <c r="F8" t="n">
         <v>-1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>27.7369669083627</v>
       </c>
       <c r="H8" t="n">
-        <v>193.6613076858069</v>
+        <v>216.1614957256749</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -944,9 +1148,63 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -955,34 +1213,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.638905033417631</v>
+        <v>4.430702845158494</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>203.2543874171493</v>
+        <v>57.03472883049793</v>
       </c>
       <c r="F9" t="n">
         <v>-1</v>
       </c>
       <c r="G9" t="n">
-        <v>52.00731178089378</v>
+        <v>48.80490563736955</v>
       </c>
       <c r="H9" t="n">
-        <v>202.2348960835481</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -991,82 +1249,31 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1074,34 +1281,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.147332307910818</v>
+        <v>6.843190617120172</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>167.6247097598735</v>
+        <v>375.6153415151748</v>
       </c>
       <c r="F10" t="n">
         <v>-1</v>
       </c>
       <c r="G10" t="n">
-        <v>101.0931173351418</v>
+        <v>53.46507624038142</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>363.8868596746775</v>
       </c>
       <c r="I10" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1194,25 +1401,25 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW10" t="n">
         <v>0</v>
@@ -1245,13 +1452,13 @@
         <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH10" t="n">
         <v>0</v>
       </c>
       <c r="BI10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ10" t="n">
         <v>0</v>
@@ -1269,16 +1476,61 @@
         <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP10" t="n">
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR10" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>2</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>2</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>2</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1286,7 +1538,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.863011867253732</v>
+        <v>5.911126257786194</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
@@ -1295,25 +1547,25 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>372.1916291366737</v>
+        <v>174.0742907665881</v>
       </c>
       <c r="F11" t="n">
         <v>-1</v>
       </c>
       <c r="G11" t="n">
-        <v>248.4776580824795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>117.5645479624593</v>
+        <v>173.0742907665881</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1328,21 +1580,45 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1351,7 +1627,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.543987383333776</v>
+        <v>5.466825583473729</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
@@ -1360,25 +1636,25 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>239.3306022629746</v>
+        <v>332.5694379151496</v>
       </c>
       <c r="F12" t="n">
         <v>-1</v>
       </c>
       <c r="G12" t="n">
-        <v>52.57287664693619</v>
+        <v>43.04709639902308</v>
       </c>
       <c r="H12" t="n">
-        <v>239.3306022629746</v>
+        <v>331.5694379151496</v>
       </c>
       <c r="I12" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1405,10 +1681,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>1</v>
@@ -1417,10 +1693,10 @@
         <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
@@ -1483,13 +1759,13 @@
         <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW12" t="n">
         <v>0</v>
@@ -1519,6 +1795,15 @@
         <v>0</v>
       </c>
       <c r="BF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI12" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1527,7 +1812,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.17017937722952</v>
+        <v>5.110249350329734</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -1536,25 +1821,25 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>127.9552717009921</v>
+        <v>283.1808808545989</v>
       </c>
       <c r="F13" t="n">
         <v>-1</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>54.02148005529508</v>
       </c>
       <c r="H13" t="n">
-        <v>122.9552717009921</v>
+        <v>283.1808808545989</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1572,21 +1857,57 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1595,7 +1916,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.267291940491619</v>
+        <v>5.557927060085825</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -1604,22 +1925,22 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>190.1505589770295</v>
+        <v>145.9530915097838</v>
       </c>
       <c r="F14" t="n">
         <v>-1</v>
       </c>
       <c r="G14" t="n">
-        <v>37.88286550184747</v>
+        <v>39.29538013037058</v>
       </c>
       <c r="H14" t="n">
-        <v>188.9619911169453</v>
+        <v>144.9530915097838</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
@@ -1634,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1643,9 +1964,24 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2</v>
+      </c>
+      <c r="X14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1654,7 +1990,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.290619615271582</v>
+        <v>5.623874359574788</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -1663,22 +1999,22 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>47.29299158992666</v>
+        <v>34.50629059471152</v>
       </c>
       <c r="F15" t="n">
         <v>-1</v>
       </c>
       <c r="G15" t="n">
-        <v>47.29299158992666</v>
+        <v>33.02937016898681</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1699,15 +2035,9 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1716,7 +2046,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.719418959225938</v>
+        <v>6.139798897742899</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
@@ -1725,25 +2055,25 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>342.0490227384023</v>
+        <v>165.6943435716464</v>
       </c>
       <c r="F16" t="n">
         <v>-1</v>
       </c>
       <c r="G16" t="n">
-        <v>53.8247796603517</v>
+        <v>62.92900108350249</v>
       </c>
       <c r="H16" t="n">
-        <v>335.6296217074769</v>
+        <v>165.6943435716464</v>
       </c>
       <c r="I16" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J16" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1761,16 +2091,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1794,10 +2124,10 @@
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -1806,90 +2136,6 @@
         <v>1</v>
       </c>
       <c r="AF16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>2</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH16" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1898,7 +2144,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2.507063829623303</v>
+        <v>5.623936335102201</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
@@ -1907,22 +2153,22 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>193.5470102580593</v>
+        <v>219.6659379476182</v>
       </c>
       <c r="F17" t="n">
         <v>-1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>37.50664722560243</v>
       </c>
       <c r="H17" t="n">
-        <v>193.5470102580593</v>
+        <v>219.6659379476182</v>
       </c>
       <c r="I17" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
@@ -1949,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1958,69 +2204,6 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ17" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2029,7 +2212,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.84148609121834</v>
+        <v>5.26846079207019</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -2038,19 +2221,19 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>43.56967817321764</v>
+        <v>26.49861893657981</v>
       </c>
       <c r="F18" t="n">
         <v>-1</v>
       </c>
       <c r="G18" t="n">
-        <v>43.56967817321764</v>
+        <v>26.49861893657981</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -2065,45 +2248,6 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2112,34 +2256,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.00636114012446</v>
+        <v>4.952180549411135</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>58.85642846373925</v>
+        <v>153.4717232684886</v>
       </c>
       <c r="F19" t="n">
         <v>-1</v>
       </c>
       <c r="G19" t="n">
-        <v>58.85642846373925</v>
+        <v>44.45114668794058</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>153.4717232684886</v>
       </c>
       <c r="I19" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2160,73 +2304,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -2234,7 +2315,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.692384697994004</v>
+        <v>6.970273378620805</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -2243,25 +2324,25 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>113.7701157306934</v>
+        <v>1473.351527861724</v>
       </c>
       <c r="F20" t="n">
         <v>-1</v>
       </c>
       <c r="G20" t="n">
-        <v>32.71379893885064</v>
+        <v>70.72636679327857</v>
       </c>
       <c r="H20" t="n">
-        <v>110.3900550111073</v>
+        <v>228.7159975146565</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -2273,33 +2354,465 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA20" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB20" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC20" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE20" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF20" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG20" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH20" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI20" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="DK20" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM20" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN20" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO20" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP20" t="n">
+        <v>1</v>
+      </c>
+      <c r="DQ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR20" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS20" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT20" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU20" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV20" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG20" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH20" t="n">
+        <v>2</v>
+      </c>
+      <c r="EI20" t="n">
+        <v>2</v>
+      </c>
+      <c r="EJ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="EK20" t="n">
+        <v>2</v>
+      </c>
+      <c r="EL20" t="n">
+        <v>2</v>
+      </c>
+      <c r="EM20" t="n">
+        <v>2</v>
+      </c>
+      <c r="EN20" t="n">
+        <v>2</v>
+      </c>
+      <c r="EO20" t="n">
+        <v>2</v>
+      </c>
+      <c r="EP20" t="n">
+        <v>2</v>
+      </c>
+      <c r="EQ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER20" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES20" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET20" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU20" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV20" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW20" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX20" t="n">
+        <v>2</v>
+      </c>
+      <c r="EY20" t="n">
+        <v>2</v>
+      </c>
+      <c r="EZ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="FA20" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI20" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="FK20" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL20" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2308,34 +2821,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.635760497669052</v>
+        <v>2.497860572267114</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>89.52498672954255</v>
+        <v>33.65625706233102</v>
       </c>
       <c r="F21" t="n">
         <v>-1</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>33.65625706233102</v>
       </c>
       <c r="H21" t="n">
-        <v>89.52498672954255</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2350,16 +2863,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2367,67 +2871,43 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.965093909997366</v>
+        <v>5.666779226308205</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>55.7173194980825</v>
+        <v>147.0242115112937</v>
       </c>
       <c r="F22" t="n">
         <v>-1</v>
       </c>
       <c r="G22" t="n">
-        <v>53.4838466661289</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.8705452496404</v>
       </c>
       <c r="I22" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -2435,40 +2915,136 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.88689204311485</v>
+        <v>5.337977442990102</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>159.2080200260509</v>
+        <v>62.01806308840818</v>
       </c>
       <c r="F23" t="n">
         <v>-1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>53.34944587853754</v>
       </c>
       <c r="H23" t="n">
-        <v>159.2080200260509</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2476,7 +3052,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5.382117030488831</v>
+        <v>4.725034526141195</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
@@ -2485,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>153.1384974317201</v>
+        <v>148.2577953221783</v>
       </c>
       <c r="F24" t="n">
         <v>-1</v>
@@ -2494,10 +3070,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>153.1384974317201</v>
+        <v>148.2577953221783</v>
       </c>
       <c r="I24" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2530,21 +3106,6 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2553,7 +3114,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.661566205947485</v>
+        <v>5.295191007125159</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
@@ -2562,22 +3123,22 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>92.88670517846884</v>
+        <v>253.8065821875255</v>
       </c>
       <c r="F25" t="n">
         <v>-1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>43.15454456242612</v>
       </c>
       <c r="H25" t="n">
-        <v>92.88670517846884</v>
+        <v>253.8065821875255</v>
       </c>
       <c r="I25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -2601,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2619,6 +3180,15 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2627,7 +3197,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5.665029610008761</v>
+        <v>5.407682376521074</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
@@ -2636,30 +3206,78 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>153.7355078047688</v>
+        <v>201.9004771352287</v>
       </c>
       <c r="F26" t="n">
         <v>-1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>47.90837040398165</v>
       </c>
       <c r="H26" t="n">
-        <v>153.7355078047688</v>
+        <v>200.9004771352287</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC26" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2668,34 +3286,34 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.882926642477091</v>
+        <v>4.779042526529617</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>123.933167058602</v>
+        <v>162.2556790833567</v>
       </c>
       <c r="F27" t="n">
         <v>-1</v>
       </c>
       <c r="G27" t="n">
-        <v>34.95056786699575</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>162.2556790833567</v>
       </c>
       <c r="I27" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J27" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2710,34 +3328,37 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -2745,7 +3366,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.940920972758418</v>
+        <v>4.149936193840035</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -2754,19 +3375,19 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>29.4778862773722</v>
+        <v>45.23646503989015</v>
       </c>
       <c r="F28" t="n">
         <v>-1</v>
       </c>
       <c r="G28" t="n">
-        <v>29.4778862773722</v>
+        <v>45.23646503989015</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -2778,6 +3399,15 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
         <v>1</v>
       </c>
     </row>

--- a/826G5_Intelligence_in_Animals_and_Machines/weeks/labs/IAM_Sussex_labs/lab_3_robinson/RobinsonTestExperimentTest1.xlsx
+++ b/826G5_Intelligence_in_Animals_and_Machines/weeks/labs/IAM_Sussex_labs/lab_3_robinson/RobinsonTestExperimentTest1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FL28"/>
+  <dimension ref="A1:BT28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,34 +488,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.981026409538548</v>
+        <v>4.438276140580682</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>312.5647701023236</v>
+        <v>54.25519844468566</v>
       </c>
       <c r="F2" t="n">
         <v>-1</v>
       </c>
       <c r="G2" t="n">
-        <v>65.52554554207035</v>
+        <v>49.65360596116905</v>
       </c>
       <c r="H2" t="n">
-        <v>306.0779503159247</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -560,76 +560,19 @@
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -637,34 +580,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.773719086671142</v>
+        <v>4.162697423326776</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>243.903270650333</v>
+        <v>46.7485087252557</v>
       </c>
       <c r="F3" t="n">
         <v>-1</v>
       </c>
       <c r="G3" t="n">
-        <v>44.64448630120049</v>
+        <v>46.7485087252557</v>
       </c>
       <c r="H3" t="n">
-        <v>243.903270650333</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -689,21 +632,6 @@
       </c>
       <c r="S3" t="n">
         <v>1</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -711,7 +639,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.708620152947999</v>
+        <v>5.398453555536437</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -720,22 +648,22 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>50.80358487838303</v>
+        <v>40.81278590284222</v>
       </c>
       <c r="F4" t="n">
         <v>-1</v>
       </c>
       <c r="G4" t="n">
-        <v>50.80358487838303</v>
+        <v>39.64751406884602</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -744,6 +672,36 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -752,7 +710,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.544908977309939</v>
+        <v>6.363918942681419</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -761,37 +719,37 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>338.2730419090117</v>
+        <v>209.251762062457</v>
       </c>
       <c r="F5" t="n">
         <v>-1</v>
       </c>
       <c r="G5" t="n">
-        <v>67.62763435839608</v>
+        <v>29.26649711158461</v>
       </c>
       <c r="H5" t="n">
-        <v>337.2730419090117</v>
+        <v>209.251762062457</v>
       </c>
       <c r="I5" t="n">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -851,129 +809,9 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>2</v>
-      </c>
-      <c r="BX5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -982,7 +820,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.562914991057796</v>
+        <v>5.971501826852974</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -991,25 +829,25 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>131.7435159653643</v>
+        <v>320.1992210335356</v>
       </c>
       <c r="F6" t="n">
         <v>-1</v>
       </c>
       <c r="G6" t="n">
-        <v>20.75383907147584</v>
+        <v>60.34557339485974</v>
       </c>
       <c r="H6" t="n">
-        <v>130.6640884641637</v>
+        <v>320.1992210335356</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1033,24 +871,159 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1059,43 +1032,64 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.571243228565664</v>
+        <v>2.729727261168646</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>43.85612531196713</v>
+        <v>167.6431902261103</v>
       </c>
       <c r="F7" t="n">
         <v>-1</v>
       </c>
       <c r="G7" t="n">
-        <v>42.85612531196713</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>167.6431902261103</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1103,34 +1097,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.942015646069388</v>
+        <v>4.041859296907002</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>221.588317998619</v>
+        <v>77.81445850409737</v>
       </c>
       <c r="F8" t="n">
         <v>-1</v>
       </c>
       <c r="G8" t="n">
-        <v>27.7369669083627</v>
+        <v>77.81445850409737</v>
       </c>
       <c r="H8" t="n">
-        <v>216.1614957256749</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1154,25 +1148,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -1190,22 +1184,64 @@
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1213,7 +1249,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.430702845158494</v>
+        <v>4.338364011205422</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1222,22 +1258,22 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>57.03472883049793</v>
+        <v>38.3695908647825</v>
       </c>
       <c r="F9" t="n">
         <v>-1</v>
       </c>
       <c r="G9" t="n">
-        <v>48.80490563736955</v>
+        <v>38.3695908647825</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1249,30 +1285,18 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1</v>
-      </c>
-      <c r="V9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1281,34 +1305,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.843190617120172</v>
+        <v>3.455598337270654</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>375.6153415151748</v>
+        <v>41.63145416829476</v>
       </c>
       <c r="F10" t="n">
         <v>-1</v>
       </c>
       <c r="G10" t="n">
-        <v>53.46507624038142</v>
+        <v>41.63145416829476</v>
       </c>
       <c r="H10" t="n">
-        <v>363.8868596746775</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1320,217 +1344,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>2</v>
-      </c>
-      <c r="BX10" t="n">
-        <v>2</v>
-      </c>
-      <c r="BY10" t="n">
-        <v>2</v>
-      </c>
-      <c r="BZ10" t="n">
-        <v>2</v>
-      </c>
-      <c r="CA10" t="n">
-        <v>2</v>
-      </c>
-      <c r="CB10" t="n">
-        <v>2</v>
-      </c>
-      <c r="CC10" t="n">
-        <v>2</v>
-      </c>
-      <c r="CD10" t="n">
-        <v>2</v>
-      </c>
-      <c r="CE10" t="n">
-        <v>2</v>
-      </c>
-      <c r="CF10" t="n">
-        <v>2</v>
-      </c>
-      <c r="CG10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1538,88 +1352,43 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.911126257786194</v>
+        <v>5.087757932963916</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>174.0742907665881</v>
+        <v>43.3595323932897</v>
       </c>
       <c r="F11" t="n">
         <v>-1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>42.24534548822956</v>
       </c>
       <c r="H11" t="n">
-        <v>173.0742907665881</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1627,34 +1396,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.466825583473729</v>
+        <v>4.640996728183414</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>332.5694379151496</v>
+        <v>60.01193835750998</v>
       </c>
       <c r="F12" t="n">
         <v>-1</v>
       </c>
       <c r="G12" t="n">
-        <v>43.04709639902308</v>
+        <v>59.01193835750998</v>
       </c>
       <c r="H12" t="n">
-        <v>331.5694379151496</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1681,130 +1450,25 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1812,7 +1476,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.110249350329734</v>
+        <v>5.35981221383769</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -1821,22 +1485,22 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>283.1808808545989</v>
+        <v>262.3608849417646</v>
       </c>
       <c r="F13" t="n">
         <v>-1</v>
       </c>
       <c r="G13" t="n">
-        <v>54.02148005529508</v>
+        <v>47.41859691178448</v>
       </c>
       <c r="H13" t="n">
-        <v>283.1808808545989</v>
+        <v>262.3608849417646</v>
       </c>
       <c r="I13" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1866,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>1</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1908,6 +1572,18 @@
         <v>0</v>
       </c>
       <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1916,7 +1592,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.557927060085825</v>
+        <v>4.679761692842403</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -1925,25 +1601,25 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>145.9530915097838</v>
+        <v>157.6877190208502</v>
       </c>
       <c r="F14" t="n">
         <v>-1</v>
       </c>
       <c r="G14" t="n">
-        <v>39.29538013037058</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>144.9530915097838</v>
+        <v>157.6877190208502</v>
       </c>
       <c r="I14" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1973,15 +1649,63 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1990,34 +1714,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.623874359574788</v>
+        <v>5.781101865083969</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>34.50629059471152</v>
+        <v>178.8177078133735</v>
       </c>
       <c r="F15" t="n">
         <v>-1</v>
       </c>
       <c r="G15" t="n">
-        <v>33.02937016898681</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>178.8177078133735</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2032,13 +1756,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -2046,34 +1764,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.139798897742899</v>
+        <v>4.103455540763498</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>165.6943435716464</v>
+        <v>49.04965746915703</v>
       </c>
       <c r="F16" t="n">
         <v>-1</v>
       </c>
       <c r="G16" t="n">
-        <v>62.92900108350249</v>
+        <v>49.04965746915703</v>
       </c>
       <c r="H16" t="n">
-        <v>165.6943435716464</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2118,25 +1836,7 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -2144,7 +1844,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.623936335102201</v>
+        <v>6.182817337732996</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
@@ -2153,25 +1853,25 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>219.6659379476182</v>
+        <v>208.7890053089531</v>
       </c>
       <c r="F17" t="n">
         <v>-1</v>
       </c>
       <c r="G17" t="n">
-        <v>37.50664722560243</v>
+        <v>51.21896765131002</v>
       </c>
       <c r="H17" t="n">
-        <v>219.6659379476182</v>
+        <v>206.7576526529807</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2189,19 +1889,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
         <v>2</v>
@@ -2212,7 +1912,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.26846079207019</v>
+        <v>5.070457468481666</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -2221,22 +1921,22 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>26.49861893657981</v>
+        <v>222.4084966423329</v>
       </c>
       <c r="F18" t="n">
         <v>-1</v>
       </c>
       <c r="G18" t="n">
-        <v>26.49861893657981</v>
+        <v>44.83646079758258</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2248,6 +1948,123 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2256,34 +2073,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.952180549411135</v>
+        <v>3.868508018148475</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>153.4717232684886</v>
+        <v>42.03225400744028</v>
       </c>
       <c r="F19" t="n">
         <v>-1</v>
       </c>
       <c r="G19" t="n">
-        <v>44.45114668794058</v>
+        <v>39.65335637097907</v>
       </c>
       <c r="H19" t="n">
-        <v>153.4717232684886</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2301,13 +2118,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
         <v>1</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2315,7 +2132,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.970273378620805</v>
+        <v>4.236702842137158</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -2324,25 +2141,25 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1473.351527861724</v>
+        <v>124.9429061076824</v>
       </c>
       <c r="F20" t="n">
         <v>-1</v>
       </c>
       <c r="G20" t="n">
-        <v>70.72636679327857</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>228.7159975146565</v>
+        <v>124.9429061076824</v>
       </c>
       <c r="I20" t="n">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -2369,450 +2186,6 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ20" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA20" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB20" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC20" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD20" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE20" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF20" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG20" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH20" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI20" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ20" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK20" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL20" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM20" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN20" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO20" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP20" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ20" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR20" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS20" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT20" t="n">
-        <v>1</v>
-      </c>
-      <c r="DU20" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV20" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG20" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH20" t="n">
-        <v>2</v>
-      </c>
-      <c r="EI20" t="n">
-        <v>2</v>
-      </c>
-      <c r="EJ20" t="n">
-        <v>2</v>
-      </c>
-      <c r="EK20" t="n">
-        <v>2</v>
-      </c>
-      <c r="EL20" t="n">
-        <v>2</v>
-      </c>
-      <c r="EM20" t="n">
-        <v>2</v>
-      </c>
-      <c r="EN20" t="n">
-        <v>2</v>
-      </c>
-      <c r="EO20" t="n">
-        <v>2</v>
-      </c>
-      <c r="EP20" t="n">
-        <v>2</v>
-      </c>
-      <c r="EQ20" t="n">
-        <v>1</v>
-      </c>
-      <c r="ER20" t="n">
-        <v>1</v>
-      </c>
-      <c r="ES20" t="n">
-        <v>1</v>
-      </c>
-      <c r="ET20" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU20" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV20" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW20" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX20" t="n">
-        <v>2</v>
-      </c>
-      <c r="EY20" t="n">
-        <v>2</v>
-      </c>
-      <c r="EZ20" t="n">
-        <v>2</v>
-      </c>
-      <c r="FA20" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI20" t="n">
-        <v>2</v>
-      </c>
-      <c r="FJ20" t="n">
-        <v>2</v>
-      </c>
-      <c r="FK20" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL20" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2821,7 +2194,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.497860572267114</v>
+        <v>3.983975219314685</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -2830,19 +2203,19 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>33.65625706233102</v>
+        <v>34.80853509012094</v>
       </c>
       <c r="F21" t="n">
         <v>-1</v>
       </c>
       <c r="G21" t="n">
-        <v>33.65625706233102</v>
+        <v>34.80853509012094</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -2863,6 +2236,12 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2871,7 +2250,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5.666779226308205</v>
+        <v>6.897056902378861</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
@@ -2880,33 +2259,207 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>147.0242115112937</v>
+        <v>265.5214278507706</v>
       </c>
       <c r="F22" t="n">
         <v>-1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>39.19002835904556</v>
       </c>
       <c r="H22" t="n">
-        <v>145.8705452496404</v>
+        <v>262.5214278507706</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT22" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2915,7 +2468,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5.337977442990102</v>
+        <v>6.000702912353181</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -2924,22 +2477,22 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>62.01806308840818</v>
+        <v>41.89195605893443</v>
       </c>
       <c r="F23" t="n">
         <v>-1</v>
       </c>
       <c r="G23" t="n">
-        <v>53.34944587853754</v>
+        <v>39.35323818479127</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J23" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2975,75 +2528,12 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3052,61 +2542,43 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.725034526141195</v>
+        <v>3.357360352481063</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>148.2577953221783</v>
+        <v>35.06971367242311</v>
       </c>
       <c r="F24" t="n">
         <v>-1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>34.06971367242311</v>
       </c>
       <c r="H24" t="n">
-        <v>148.2577953221783</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -3114,7 +2586,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5.295191007125159</v>
+        <v>5.321182676506176</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
@@ -3123,22 +2595,22 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>253.8065821875255</v>
+        <v>137.070353654932</v>
       </c>
       <c r="F25" t="n">
         <v>-1</v>
       </c>
       <c r="G25" t="n">
-        <v>43.15454456242612</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>253.8065821875255</v>
+        <v>137.070353654932</v>
       </c>
       <c r="I25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -3162,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -3183,12 +2655,6 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3197,7 +2663,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5.407682376521074</v>
+        <v>1.796748322245799</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
@@ -3206,25 +2672,25 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>201.9004771352287</v>
+        <v>140.8580776654297</v>
       </c>
       <c r="F26" t="n">
         <v>-1</v>
       </c>
       <c r="G26" t="n">
-        <v>47.90837040398165</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>200.9004771352287</v>
+        <v>140.8580776654297</v>
       </c>
       <c r="I26" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3245,39 +2711,6 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC26" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3286,34 +2719,34 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.779042526529617</v>
+        <v>5.377150340183802</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>162.2556790833567</v>
+        <v>53.4465421322515</v>
       </c>
       <c r="F27" t="n">
         <v>-1</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>51.4465421322515</v>
       </c>
       <c r="H27" t="n">
-        <v>162.2556790833567</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>14</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -3358,7 +2791,13 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -3366,7 +2805,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.149936193840035</v>
+        <v>5.327215391490252</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -3375,22 +2814,22 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>45.23646503989015</v>
+        <v>42.89679608054893</v>
       </c>
       <c r="F28" t="n">
         <v>-1</v>
       </c>
       <c r="G28" t="n">
-        <v>45.23646503989015</v>
+        <v>41.89679608054893</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -3405,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
